--- a/gecko bài tập /bài tập trên lớp/danh_sach_sp_3.xlsx
+++ b/gecko bài tập /bài tập trên lớp/danh_sach_sp_3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="220">
   <si>
     <t>STT</t>
   </si>
@@ -160,6 +160,102 @@
     <t>Viên uống Multivitamin +Zn +D3 Royal Care hỗ trợ tăng cường sức khỏe, nâng cao sức đề kháng (60 viên)</t>
   </si>
   <si>
+    <t>Viên uống Dr. Caci Ocavill giúp xương và răng chắc khỏe (60 viên)</t>
+  </si>
+  <si>
+    <t>Xịt họng Xuyên Tâm Liên Hải Thượng Vương hỗ trợ giảm ho, giảm đờm, giảm đau rát họng, khàn tiếng (30ml)</t>
+  </si>
+  <si>
+    <t>Xịt họng Propolis Ivy Royal Care giảm ho, đờm, đau rát họng, khản tiếng do viêm họng, viêm phế quản (20ml)</t>
+  </si>
+  <si>
+    <t>Viên sủi Optimax Immunity Booster Vid-Fighter tăng cường sức đề kháng cho cơ thể (20 viên)</t>
+  </si>
+  <si>
+    <t>Siro Datadu Kingphar hỗ trợ hạn chế đau đầu, sốt, ho (4 vỉ x 5 ống x 10ml)</t>
+  </si>
+  <si>
+    <t>Viên uống Thymo-Glucan Kingphar nâng cao sức đề kháng, giúp cơ thể khỏe mạnh (3 vỉ x 10 viên)</t>
+  </si>
+  <si>
+    <t>Viên uống Bifido Plus Jpanwell bổ sung các lợi khuẩn tăng cường sức khỏe đại tràng (30 viên)</t>
+  </si>
+  <si>
+    <t>Cốm lợi sữa TT.Galac Traphaco hỗ trợ lợi sữa, tăng tiết sữa, giảm nguy cơ tắc tuyến sữa (20 gói x 3g)</t>
+  </si>
+  <si>
+    <t>Viên uống Bye Tree Royal Care hỗ trợ tăng sức bền thành mạch, giảm nguy cơ bị trĩ (60 viên)</t>
+  </si>
+  <si>
+    <t>Viên uống B Complex Vitamin Royal Care hỗ trợ giảm mệt mỏi, căng thẳng (60 viên)</t>
+  </si>
+  <si>
+    <t>Viên bổ thận Kidney Plus Jpanwell hỗ trợ bổ thận, duy trì đường tiết niệu khỏe mạnh (60 viên)</t>
+  </si>
+  <si>
+    <t>Viên uống Dr. Liver Jpanwell bổ gan, tăng cường giải độc gan (60 viên)</t>
+  </si>
+  <si>
+    <t>Viên uống Glucosamine And Chondroitin Jpanwell hỗ trợ bổ sung chất nhờn dịch khớp (120 viên)</t>
+  </si>
+  <si>
+    <t>Viên Sáng Mắt Hải Thượng Vương hỗ trợ tăng cường thị lực (60 viên)</t>
+  </si>
+  <si>
+    <t>Viên uống Blood Care Jpanwell hỗ trợ bổ máu, giảm nguy cơ thiếu máu do thiếu sắt (60 viên)</t>
+  </si>
+  <si>
+    <t>Viên nén Multi Vitas Lab Well bổ sung vitamin và khoáng chất cho cơ thể (60 viên)</t>
+  </si>
+  <si>
+    <t>Viên uống Sâm - Đông Trùng Hạ Thảo Kotimogin tăng cường sức khỏe (20 vỉ x 3 viên)</t>
+  </si>
+  <si>
+    <t>Viên uống Teens Active Vitamins For Life bổ sung vitamin và khoáng chất cho thanh thiếu niên (60 viên)</t>
+  </si>
+  <si>
+    <t>Viên uống Ultra Brain Lab Well hỗ trợ bổ sung DHA, EPA cho cơ thể (60 viên)</t>
+  </si>
+  <si>
+    <t>Viên uống Gasso Max Vitamins For Life bổ sung enzyme và các thảo mộc, hỗ trợ tiêu hóa tốt (30 viên)</t>
+  </si>
+  <si>
+    <t>Viên uống Milk Thistle Nature's Bounty hỗ trợ tăng cường chức năng gan, bảo vệ gan (50 viên)</t>
+  </si>
+  <si>
+    <t>Viên uống Echina Kingphar hỗ trợ tăng cường sức đề kháng (30 viên)</t>
+  </si>
+  <si>
+    <t>Viên uống Lutein Nature's Bounty giúp tăng cường thị lực cho mắt (30 viên)</t>
+  </si>
+  <si>
+    <t>Viên uống Hair Volume New Nordic giúp tóc chắc khỏe, đẹp tóc, hạn chế rụng tóc (30 viên)</t>
+  </si>
+  <si>
+    <t>Viên uống Gout Aid Vitamins For Life hỗ trợ giảm triệu chứng ở người bị gout (30 viên)</t>
+  </si>
+  <si>
+    <t>Viên uống Colon Care Vitamins For Life giúp nhuận tràng, giảm táo bón (60 viên)</t>
+  </si>
+  <si>
+    <t>Viên uống LiverWell Navi hỗ trợ thanh nhiệt, mát gan, giải độc (12 vỉ x 5 viên)</t>
+  </si>
+  <si>
+    <t>Viên uống Sâm Nhung Bổ Thận NV Dolexpharm hỗ trợ tráng dương, tăng cường sinh lực (30 viên)</t>
+  </si>
+  <si>
+    <t>Viên nang cứng Triple Care Gold Vitamins For Life Hỗ trợ tăng tiết dịch khớp, giảm thoái hóa khớp (60 viên)</t>
+  </si>
+  <si>
+    <t>Viên uống Nanocurcumin Tam Thất Xạ Đen Plus giảm viêm loét dạ dày, tá tràng (3 vỉ x 10 viên)</t>
+  </si>
+  <si>
+    <t>Siro bổ phế Bối Mẫu Forte Mom And Baby hỗ trợ bổ phổi ích phế, giảm ho (125ml)</t>
+  </si>
+  <si>
+    <t>Viên uống Super Chromium 250mcg NatureCare cân bằng đường huyết, giảm cholesterol (90 viên)</t>
+  </si>
+  <si>
     <t>149.000đ / Hộp</t>
   </si>
   <si>
@@ -271,6 +367,87 @@
     <t>175.000đ / Hộp</t>
   </si>
   <si>
+    <t>570.000đ / Hộp</t>
+  </si>
+  <si>
+    <t>95.400đ / Hộp</t>
+  </si>
+  <si>
+    <t>69.300đ / Hộp</t>
+  </si>
+  <si>
+    <t>118.000đ / Tuýp</t>
+  </si>
+  <si>
+    <t>82.000đ / Hộp</t>
+  </si>
+  <si>
+    <t>990.000đ / Hộp</t>
+  </si>
+  <si>
+    <t>128.000đ / Hộp</t>
+  </si>
+  <si>
+    <t>250.000đ / Hộp</t>
+  </si>
+  <si>
+    <t>160.000đ / Hộp</t>
+  </si>
+  <si>
+    <t>864.000đ / Hộp</t>
+  </si>
+  <si>
+    <t>180.000đ / Hộp</t>
+  </si>
+  <si>
+    <t>995.000đ / Hộp</t>
+  </si>
+  <si>
+    <t>340.000đ / Hộp</t>
+  </si>
+  <si>
+    <t>350.000đ / Hộp</t>
+  </si>
+  <si>
+    <t>239.000đ / Hộp</t>
+  </si>
+  <si>
+    <t>335.000đ / Chai</t>
+  </si>
+  <si>
+    <t>282.000đ / Hộp</t>
+  </si>
+  <si>
+    <t>57.000đ / Hộp</t>
+  </si>
+  <si>
+    <t>256.000đ / Hộp</t>
+  </si>
+  <si>
+    <t>567.000đ / Hộp</t>
+  </si>
+  <si>
+    <t>380.000đ / Hộp</t>
+  </si>
+  <si>
+    <t>140.000đ / Hộp</t>
+  </si>
+  <si>
+    <t>125.000đ / Hộp</t>
+  </si>
+  <si>
+    <t>650.000đ / Hộp</t>
+  </si>
+  <si>
+    <t>280.800đ / Hộp</t>
+  </si>
+  <si>
+    <t>55.000đ / Chai</t>
+  </si>
+  <si>
+    <t>478.000đ / Hộp</t>
+  </si>
+  <si>
     <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_09876_48f43712fc.png</t>
   </si>
   <si>
@@ -401,6 +578,102 @@
   </si>
   <si>
     <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_08020_1cb976cef9.png</t>
+  </si>
+  <si>
+    <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_08680_827789c4f8.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00345910_xit_hong_xuyen_tam_lien_hai_thuong_vuong_30ml_5572_6272_large_330958447c.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00345909_xit_hong_propolis_ivy_royal_care_20ml_8905_6271_large_2d8296074d.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00033702_vien_uong_tang_suc_khang_optimax_immunity_booster_vid_fighter_20v_4698_62ae_large_b9fe136dbf.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00033587_siro_datadu_kingphar_hop_4_vi_x_5_ong_10ml_ho_tro_han_che_dau_dau_sot_ho_7515_6230_large_77dc78b98a.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00033459_vien_uong_nang_cao_suc_de_khang_thymo_glucan_kingphar_3x10_6337_6233_large_c870aab8a8.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00033284_vien_uong_ho_tro_dai_trang_bifido_plus_jpanwell_30v_5543_61e9_large_9d369d6c67.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00033177_com_loi_sua_ttgalac_20_goi_x_3g_5353_62ae_large_8eee019953.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00033184_vien_uong_giam_nguy_co_bi_tri_byetree_royal_care_60v_7820_62ae_large_12f9df6d9e.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00032942_b_complex_vitamin_royal_care_60v_5253_61c0_large_17e5e39343.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00032921_vien_uong_bo_than_kidney_plus_jpanwell_60v_9615_61aa_large_d59282942e.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00032920_vien_uong_thai_doc_gan_dr_liver_jpanwell_60v_5501_61a5_large_2fccd9ea7b.JPG</t>
+  </si>
+  <si>
+    <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00032918_glucosamine_and_chondroitin_jpanwell_120v_9745_61a5_large_41ffa86dc1.JPG</t>
+  </si>
+  <si>
+    <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00032867_vien_sang_mat_hai_thuong_vuong_60v_8865_61af_large_ce9a194628.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00032817_blood_care_jpanwell_60v_3261_61ad_large_ce1b030baa.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_08333_0d6a18e346.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00345360_dong_trung_ha_thao_kotimogin_8015_6328_large_9b0f3b92a7.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00345388_teens_active_bo_sung_vitamin_cho_thieu_nien_5186_63a9_large_c8259bcfea.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_08409_f2ebe99545.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00345419_gasso_max_thao_duoc_ho_tro_tieu_hoa_9444_6328_large_1a28a201ca.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_09838_9cf799719b.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/IMG_3635_949f7e0fd3.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00345423_lutein_vien_uong_bo_mat_cua_my_1869_62af_large_647c6c3d64.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00345353_hair_volume_vien_uong_duong_toc_7952_62af_large_46a5a99e57.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00345417_gout_aid_ho_tro_dieu_tri_gout_8900_63e1_large_128ee0ed15.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00345421_colon_care_vien_uong_nhuan_trang_8278_63e1_large_24e0f02a41.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/IMG_3677_c2d86baac2.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/IMG_3754_319065b5fe.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_08943_5e553c7570.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00017023_nanocurcumin_plus_tam_that_xa_den_hvqy_3x10_7200_6327_large_ab69a38711.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/00017891_boi_mau_forte_tat_thanh_125ml_siro_bo_phe_4358_5e14_large_b7787fb760.jpg</t>
+  </si>
+  <si>
+    <t>https://cdn.nhathuoclongchau.com.vn/unsafe/2560x0/filters:quality(90)/DSC_08429_6bfd2a9a5d.jpg</t>
   </si>
 </sst>
 </file>
@@ -771,7 +1044,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -799,10 +1072,10 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>85</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -813,10 +1086,10 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>86</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -827,10 +1100,10 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>87</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -841,10 +1114,10 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>82</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>88</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -855,10 +1128,10 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>89</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -869,10 +1142,10 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>90</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -883,10 +1156,10 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>91</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -897,10 +1170,10 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>92</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -911,10 +1184,10 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>93</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -925,10 +1198,10 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>94</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -939,10 +1212,10 @@
         <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>95</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -953,10 +1226,10 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>96</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -967,10 +1240,10 @@
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>97</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -981,10 +1254,10 @@
         <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>98</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -995,10 +1268,10 @@
         <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1009,10 +1282,10 @@
         <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>100</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1023,10 +1296,10 @@
         <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>101</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1037,10 +1310,10 @@
         <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>102</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1051,10 +1324,10 @@
         <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>103</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1065,10 +1338,10 @@
         <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>104</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1079,10 +1352,10 @@
         <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>105</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1093,10 +1366,10 @@
         <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>106</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1107,10 +1380,10 @@
         <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>107</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1121,10 +1394,10 @@
         <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>108</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1135,10 +1408,10 @@
         <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>109</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1149,10 +1422,10 @@
         <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>110</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1163,10 +1436,10 @@
         <v>30</v>
       </c>
       <c r="C28" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>111</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1177,10 +1450,10 @@
         <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>112</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1191,10 +1464,10 @@
         <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>113</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1205,10 +1478,10 @@
         <v>33</v>
       </c>
       <c r="C31" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>114</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1219,10 +1492,10 @@
         <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>115</v>
+        <v>174</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1233,10 +1506,10 @@
         <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>116</v>
+        <v>175</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1247,10 +1520,10 @@
         <v>36</v>
       </c>
       <c r="C34" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>117</v>
+        <v>176</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1261,10 +1534,10 @@
         <v>37</v>
       </c>
       <c r="C35" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>118</v>
+        <v>177</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1275,10 +1548,10 @@
         <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>119</v>
+        <v>178</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1289,10 +1562,10 @@
         <v>39</v>
       </c>
       <c r="C37" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>120</v>
+        <v>179</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1303,10 +1576,10 @@
         <v>40</v>
       </c>
       <c r="C38" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>121</v>
+        <v>180</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1317,10 +1590,10 @@
         <v>41</v>
       </c>
       <c r="C39" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>122</v>
+        <v>181</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1331,10 +1604,10 @@
         <v>42</v>
       </c>
       <c r="C40" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>123</v>
+        <v>182</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1345,10 +1618,10 @@
         <v>43</v>
       </c>
       <c r="C41" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>124</v>
+        <v>183</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1359,10 +1632,10 @@
         <v>44</v>
       </c>
       <c r="C42" t="s">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>125</v>
+        <v>184</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1373,10 +1646,10 @@
         <v>45</v>
       </c>
       <c r="C43" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>126</v>
+        <v>185</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1387,10 +1660,10 @@
         <v>46</v>
       </c>
       <c r="C44" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>127</v>
+        <v>186</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1401,10 +1674,458 @@
         <v>47</v>
       </c>
       <c r="C45" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" t="s">
+        <v>117</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" t="s">
+        <v>118</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" t="s">
+        <v>119</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" t="s">
+        <v>120</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50" t="s">
+        <v>121</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" t="s">
+        <v>113</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52" t="s">
+        <v>122</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53" t="s">
+        <v>123</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>56</v>
+      </c>
+      <c r="C54" t="s">
+        <v>124</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>57</v>
+      </c>
+      <c r="C55" t="s">
+        <v>125</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>58</v>
+      </c>
+      <c r="C56" t="s">
+        <v>122</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>59</v>
+      </c>
+      <c r="C57" t="s">
+        <v>122</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>60</v>
+      </c>
+      <c r="C58" t="s">
+        <v>126</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>61</v>
+      </c>
+      <c r="C59" t="s">
+        <v>127</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>62</v>
+      </c>
+      <c r="C60" t="s">
         <v>128</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>63</v>
+      </c>
+      <c r="C61" t="s">
+        <v>129</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>64</v>
+      </c>
+      <c r="C62" t="s">
+        <v>130</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>65</v>
+      </c>
+      <c r="C63" t="s">
+        <v>130</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>66</v>
+      </c>
+      <c r="C64" t="s">
+        <v>131</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>67</v>
+      </c>
+      <c r="C65" t="s">
+        <v>132</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>68</v>
+      </c>
+      <c r="C66" t="s">
+        <v>133</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>69</v>
+      </c>
+      <c r="C67" t="s">
+        <v>134</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>70</v>
+      </c>
+      <c r="C68" t="s">
+        <v>135</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>71</v>
+      </c>
+      <c r="C69" t="s">
+        <v>136</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>72</v>
+      </c>
+      <c r="C70" t="s">
+        <v>137</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>73</v>
+      </c>
+      <c r="C71" t="s">
+        <v>86</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>74</v>
+      </c>
+      <c r="C72" t="s">
+        <v>138</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>75</v>
+      </c>
+      <c r="C73" t="s">
+        <v>139</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>76</v>
+      </c>
+      <c r="C74" t="s">
+        <v>140</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>77</v>
+      </c>
+      <c r="C75" t="s">
+        <v>141</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>78</v>
+      </c>
+      <c r="C76" t="s">
+        <v>142</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>79</v>
+      </c>
+      <c r="C77" t="s">
+        <v>143</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -1453,6 +2174,38 @@
     <hyperlink ref="D43" r:id="rId42"/>
     <hyperlink ref="D44" r:id="rId43"/>
     <hyperlink ref="D45" r:id="rId44"/>
+    <hyperlink ref="D46" r:id="rId45"/>
+    <hyperlink ref="D47" r:id="rId46"/>
+    <hyperlink ref="D48" r:id="rId47"/>
+    <hyperlink ref="D49" r:id="rId48"/>
+    <hyperlink ref="D50" r:id="rId49"/>
+    <hyperlink ref="D51" r:id="rId50"/>
+    <hyperlink ref="D52" r:id="rId51"/>
+    <hyperlink ref="D53" r:id="rId52"/>
+    <hyperlink ref="D54" r:id="rId53"/>
+    <hyperlink ref="D55" r:id="rId54"/>
+    <hyperlink ref="D56" r:id="rId55"/>
+    <hyperlink ref="D57" r:id="rId56"/>
+    <hyperlink ref="D58" r:id="rId57"/>
+    <hyperlink ref="D59" r:id="rId58"/>
+    <hyperlink ref="D60" r:id="rId59"/>
+    <hyperlink ref="D61" r:id="rId60"/>
+    <hyperlink ref="D62" r:id="rId61"/>
+    <hyperlink ref="D63" r:id="rId62"/>
+    <hyperlink ref="D64" r:id="rId63"/>
+    <hyperlink ref="D65" r:id="rId64"/>
+    <hyperlink ref="D66" r:id="rId65"/>
+    <hyperlink ref="D67" r:id="rId66"/>
+    <hyperlink ref="D68" r:id="rId67"/>
+    <hyperlink ref="D69" r:id="rId68"/>
+    <hyperlink ref="D70" r:id="rId69"/>
+    <hyperlink ref="D71" r:id="rId70"/>
+    <hyperlink ref="D72" r:id="rId71"/>
+    <hyperlink ref="D73" r:id="rId72"/>
+    <hyperlink ref="D74" r:id="rId73"/>
+    <hyperlink ref="D75" r:id="rId74"/>
+    <hyperlink ref="D76" r:id="rId75"/>
+    <hyperlink ref="D77" r:id="rId76"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
